--- a/BackTest/2020-01-15 BackTest AMO.xlsx
+++ b/BackTest/2020-01-15 BackTest AMO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,14 +484,10 @@
         <v>4983150.902699999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.2524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -524,14 +520,8 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -563,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -665,14 +649,10 @@
         <v>6283996.526699998</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.2523</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -705,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -744,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -1506,14 +1474,10 @@
         <v>6177865.596700001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.2526</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
@@ -1546,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1585,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1621,14 +1573,10 @@
         <v>6194817.121700001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.2521</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
@@ -1661,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1700,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1769,14 +1705,10 @@
         <v>5355716.645700001</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.252</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
@@ -1806,19 +1738,11 @@
         <v>4461707.615700001</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1847,19 +1771,11 @@
         <v>5262483.259700001</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1888,14 +1804,10 @@
         <v>6436192.448700001</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.2524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
@@ -1928,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1964,19 +1870,11 @@
         <v>6817601.755700001</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2005,14 +1903,10 @@
         <v>6050729.160700002</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.2524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
@@ -2042,19 +1936,11 @@
         <v>7487186.983700002</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2083,19 +1969,11 @@
         <v>8720226.508700002</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2124,14 +2002,10 @@
         <v>9817653.835700002</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.2524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
@@ -2161,19 +2035,11 @@
         <v>8355768.725700001</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2202,19 +2068,11 @@
         <v>7105777.675700001</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2243,14 +2101,10 @@
         <v>8118447.379700001</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.2521</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
@@ -2280,19 +2134,11 @@
         <v>7071874.626700001</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2321,19 +2167,11 @@
         <v>8025213.9937</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2362,14 +2200,10 @@
         <v>6512474.309700001</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
@@ -2399,19 +2233,11 @@
         <v>7499716.725700001</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2440,19 +2266,11 @@
         <v>6148016.526700001</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2481,14 +2299,10 @@
         <v>7152210.467700001</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.2521</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
@@ -2518,19 +2332,11 @@
         <v>5647946.545700001</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2559,19 +2365,11 @@
         <v>6592810.150700001</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2600,14 +2398,10 @@
         <v>5215682.664700001</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.253</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
@@ -2637,19 +2431,11 @@
         <v>6702995.061700001</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2678,19 +2464,11 @@
         <v>5419100.961700002</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2719,14 +2497,10 @@
         <v>6245303.892700002</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.2528</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
@@ -2756,19 +2530,11 @@
         <v>5113973.515700001</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.2531</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2797,19 +2563,11 @@
         <v>3669039.930700001</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2838,14 +2596,10 @@
         <v>4707136.921700002</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.2522</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
@@ -2875,19 +2629,11 @@
         <v>6101215.932700002</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2919,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3186,14 +2926,10 @@
         <v>5359770.624700001</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
@@ -3226,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3262,19 +2992,11 @@
         <v>6135118.9817</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3303,14 +3025,10 @@
         <v>7427488.8437</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.2528</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
@@ -3340,19 +3058,11 @@
         <v>6279206.9417</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.2531</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3381,19 +3091,11 @@
         <v>6279206.9417</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3488,14 +3190,10 @@
         <v>8114025.595699999</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.2528</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
@@ -3528,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3567,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3603,14 +3289,10 @@
         <v>7211540.802699999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.2528</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
@@ -3643,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3679,19 +3355,11 @@
         <v>7236968.090699999</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3720,14 +3388,10 @@
         <v>7927558.823699999</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.2521</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
@@ -3757,19 +3421,11 @@
         <v>6457197.951699998</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3798,19 +3454,11 @@
         <v>7241022.070699998</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3839,14 +3487,10 @@
         <v>8363876.684699998</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.2523</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
@@ -3876,19 +3520,11 @@
         <v>7096934.109699998</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3917,19 +3553,11 @@
         <v>5889321.871699998</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3958,14 +3586,10 @@
         <v>5889321.871699998</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.2521</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
@@ -3995,19 +3619,11 @@
         <v>5889321.871699998</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4036,19 +3652,11 @@
         <v>7224070.545699999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4077,14 +3685,10 @@
         <v>6525004.050699999</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.253</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
@@ -4114,19 +3718,11 @@
         <v>5207206.901699998</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4155,19 +3751,11 @@
         <v>6465673.714699998</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4196,14 +3784,10 @@
         <v>5503858.585699999</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
@@ -4233,19 +3817,11 @@
         <v>6830131.497699998</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4274,19 +3850,11 @@
         <v>8241162.032699998</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4315,14 +3883,10 @@
         <v>8241162.032699998</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0.253</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
@@ -4352,19 +3916,11 @@
         <v>7406483.338699998</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4393,19 +3949,11 @@
         <v>6207346.862699999</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4500,14 +4048,10 @@
         <v>7398007.575699998</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0.2522</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
@@ -4537,19 +4081,11 @@
         <v>6512474.307699998</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4578,19 +4114,11 @@
         <v>7694659.258699998</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4619,14 +4147,10 @@
         <v>6851504.802699998</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0.2527</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
@@ -4659,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4695,19 +4213,11 @@
         <v>6961689.713699997</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4901,14 +4411,10 @@
         <v>4563416.761699997</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
@@ -4941,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4977,19 +4477,11 @@
         <v>4359998.464699997</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5018,14 +4510,10 @@
         <v>3389707.572699997</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0.253</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
@@ -5055,19 +4543,11 @@
         <v>3389707.572699997</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5096,19 +4576,11 @@
         <v>4249813.553699996</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5137,14 +4609,10 @@
         <v>2830307.255699996</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.2529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
@@ -5174,19 +4642,11 @@
         <v>3995540.681699996</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5215,19 +4675,11 @@
         <v>2838783.017699996</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5256,14 +4708,10 @@
         <v>2838783.017699996</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0.2526</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
@@ -5293,19 +4741,11 @@
         <v>1860016.363699996</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5334,19 +4774,11 @@
         <v>2592985.908699996</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5375,14 +4807,10 @@
         <v>2592985.908699996</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.2527</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
@@ -5412,19 +4840,11 @@
         <v>3503946.463699996</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5453,19 +4873,11 @@
         <v>2576034.383699996</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5626,14 +5038,10 @@
         <v>842924.8776999959</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0.2529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
@@ -5663,19 +5071,11 @@
         <v>1643700.521699996</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5704,19 +5104,11 @@
         <v>469991.3326999957</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5745,14 +5137,10 @@
         <v>665179.9680999957</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
@@ -5785,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5824,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5959,14 +5335,10 @@
         <v>495664.7190999954</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0.2533</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
@@ -5999,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6038,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -8747,14 +8107,10 @@
         <v>3898653.825132449</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J234" t="n">
-        <v>0.2523</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
@@ -8784,19 +8140,11 @@
         <v>3898653.825132449</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J235" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8825,19 +8173,11 @@
         <v>3898653.825132449</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J236" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9097,14 +8437,10 @@
         <v>3898653.825132449</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J244" t="n">
-        <v>0.2523</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
@@ -9134,19 +8470,11 @@
         <v>3898653.825132449</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J245" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9175,19 +8503,11 @@
         <v>3898653.825132449</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J246" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9216,14 +8536,10 @@
         <v>3898653.825132449</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J247" t="n">
-        <v>0.2523</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
@@ -9256,14 +8572,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9295,14 +8605,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9331,19 +8635,11 @@
         <v>2462196.002132449</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J250" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9372,19 +8668,11 @@
         <v>3695235.527132449</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J251" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9413,19 +8701,11 @@
         <v>3695235.527132449</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J252" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9454,19 +8734,11 @@
         <v>-2177226.089967551</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J253" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9498,14 +8770,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9534,19 +8800,11 @@
         <v>-927235.0399675511</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J255" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9578,14 +8836,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9617,14 +8869,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9653,19 +8899,11 @@
         <v>-461068.1089675513</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J258" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9694,19 +8932,11 @@
         <v>-469770.4704675513</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J259" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9738,14 +8968,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9774,19 +8998,11 @@
         <v>-3547150.852767551</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J261" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9815,19 +9031,11 @@
         <v>-3547150.852767551</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J262" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9856,19 +9064,11 @@
         <v>-3547150.852767551</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J263" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9897,19 +9097,11 @@
         <v>-3640523.567767551</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J264" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9938,19 +9130,11 @@
         <v>-2695659.962767551</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="J265" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9979,19 +9163,11 @@
         <v>681467.5232324488</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J266" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10020,19 +9196,11 @@
         <v>-805844.8737675513</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J267" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10061,19 +9229,11 @@
         <v>-803212.6107675512</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J268" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10105,14 +9265,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10144,14 +9298,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10183,14 +9331,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10222,14 +9364,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10261,14 +9397,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10297,19 +9427,11 @@
         <v>-1036591.676067551</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="n">
-        <v>0.2549</v>
-      </c>
-      <c r="J274" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10341,14 +9463,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10377,19 +9493,11 @@
         <v>-1723128.429067551</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="n">
-        <v>0.2539</v>
-      </c>
-      <c r="J276" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10418,19 +9526,11 @@
         <v>-2998546.766067551</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
-      </c>
-      <c r="I277" t="n">
-        <v>0.2546</v>
-      </c>
-      <c r="J277" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10459,19 +9559,11 @@
         <v>-2998546.766067551</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
-      </c>
-      <c r="I278" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J278" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10500,19 +9592,11 @@
         <v>-2996389.147267552</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
-      </c>
-      <c r="I279" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J279" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10541,19 +9625,11 @@
         <v>2084704.145532448</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
-      </c>
-      <c r="I280" t="n">
-        <v>0.2549</v>
-      </c>
-      <c r="J280" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10582,19 +9658,11 @@
         <v>2084704.145532448</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
-      </c>
-      <c r="I281" t="n">
-        <v>0.2554</v>
-      </c>
-      <c r="J281" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10626,14 +9694,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10665,14 +9727,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10704,14 +9760,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10743,14 +9793,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10779,19 +9823,13 @@
         <v>3456361.859932448</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
-        <v>1.025519223147047</v>
+        <v>1</v>
       </c>
       <c r="M286" t="inlineStr"/>
     </row>
@@ -11115,7 +10153,7 @@
         <v>2194287.988232448</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11148,7 +10186,7 @@
         <v>2196225.214032448</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11181,7 +10219,7 @@
         <v>1047943.312032448</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11214,7 +10252,7 @@
         <v>2162322.164032448</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11247,7 +10285,7 @@
         <v>819097.7280324481</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11280,7 +10318,7 @@
         <v>1569018.798032448</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11313,7 +10351,7 @@
         <v>2810534.086032448</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11346,7 +10384,7 @@
         <v>1874146.244032448</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11379,7 +10417,7 @@
         <v>1874146.244032448</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11412,7 +10450,7 @@
         <v>1872128.244032448</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11445,7 +10483,7 @@
         <v>839772.7780324484</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11478,7 +10516,7 @@
         <v>1742257.571032448</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11511,7 +10549,7 @@
         <v>1742257.571032448</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11544,7 +10582,7 @@
         <v>2434847.304032448</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11577,7 +10615,7 @@
         <v>964486.4320324482</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11610,7 +10648,7 @@
         <v>966419.4919324482</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11643,7 +10681,7 @@
         <v>182595.3729324483</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11676,7 +10714,7 @@
         <v>1307394.050932448</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11709,7 +10747,7 @@
         <v>40451.4759324484</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11742,7 +10780,7 @@
         <v>1248063.713932448</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11907,7 +10945,7 @@
         <v>-5832320.609767552</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12039,7 +11077,7 @@
         <v>-7732626.609967552</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12171,7 +11209,7 @@
         <v>-10304204.93546755</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12237,7 +11275,7 @@
         <v>-12457660.50016755</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12270,7 +11308,7 @@
         <v>-10936445.05416755</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12303,7 +11341,7 @@
         <v>-11821978.32216755</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12336,7 +11374,7 @@
         <v>-11821978.32216755</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12369,7 +11407,7 @@
         <v>-11821978.32216755</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12402,7 +11440,7 @@
         <v>-11821978.32216755</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12435,7 +11473,7 @@
         <v>-11821978.32216755</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -16131,10 +15169,14 @@
         <v>-32442046.98400357</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.2518</v>
+      </c>
       <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
@@ -16167,8 +15209,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16200,8 +15248,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -20817,7 +19871,7 @@
         <v>-54174750.56850357</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21543,7 +20597,7 @@
         <v>-53381381.58290356</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21609,7 +20663,7 @@
         <v>-54733081.78190356</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22005,7 +21059,7 @@
         <v>-50135644.15360357</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22500,7 +21554,7 @@
         <v>-51445763.56020357</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22533,7 +21587,7 @@
         <v>-50331384.70820358</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22566,7 +21620,7 @@
         <v>-48988160.27220358</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22632,7 +21686,7 @@
         <v>-48496566.05420358</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22698,7 +21752,7 @@
         <v>-50488002.41120358</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22797,7 +21851,7 @@
         <v>-49492284.23320358</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22830,7 +21884,7 @@
         <v>-45716936.02790357</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22896,7 +21950,7 @@
         <v>-47174516.34040357</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22929,7 +21983,7 @@
         <v>-47174516.34040357</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22962,7 +22016,7 @@
         <v>-47174516.34040357</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22995,7 +22049,7 @@
         <v>-47958340.45940357</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23028,7 +22082,7 @@
         <v>-49081195.07340357</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23061,7 +22115,7 @@
         <v>-49011210.27170357</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23094,7 +22148,7 @@
         <v>-50278152.84670357</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23127,7 +22181,7 @@
         <v>-51485765.08470357</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23160,7 +22214,7 @@
         <v>-50456143.85670357</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23259,7 +22313,7 @@
         <v>-51807844.05570358</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23358,7 +22412,7 @@
         <v>-53834184.32790358</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23391,7 +22445,7 @@
         <v>-51570553.92370357</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23424,7 +22478,7 @@
         <v>-52981584.45870357</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23457,7 +22511,7 @@
         <v>-52163857.28970357</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23523,7 +22577,7 @@
         <v>-49394845.84830357</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23556,7 +22610,7 @@
         <v>-49394845.84830357</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23589,7 +22643,7 @@
         <v>-48653400.54130358</v>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23655,7 +22709,7 @@
         <v>-46806480.43490358</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23721,7 +22775,7 @@
         <v>-47442162.61290358</v>
       </c>
       <c r="H678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23787,10 +22841,14 @@
         <v>-48285317.06890358</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="J680" t="n">
+        <v>0.2529</v>
+      </c>
       <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
@@ -23820,11 +22878,19 @@
         <v>-47416735.32590358</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="J681" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23853,11 +22919,19 @@
         <v>-48175132.15790358</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="J682" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23886,10 +22960,14 @@
         <v>-49094568.47490358</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="J683" t="n">
+        <v>0.2519</v>
+      </c>
       <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
@@ -23919,11 +22997,19 @@
         <v>-47793722.85090359</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="J684" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23952,11 +23038,19 @@
         <v>-48874198.65390359</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="J685" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23985,10 +23079,14 @@
         <v>-47344507.44490359</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="J686" t="n">
+        <v>0.2518</v>
+      </c>
       <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
@@ -24018,11 +23116,19 @@
         <v>-48653828.83190359</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="J687" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24051,11 +23157,19 @@
         <v>-47345644.17030359</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="J688" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24084,10 +23198,14 @@
         <v>-48824480.80430359</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="J689" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
@@ -24117,11 +23235,19 @@
         <v>-49820198.98330359</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="J690" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24150,11 +23276,19 @@
         <v>-46391201.57930359</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="J691" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24183,11 +23317,19 @@
         <v>-47361492.47130359</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="J692" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24219,8 +23361,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24249,11 +23397,19 @@
         <v>-48224052.61690359</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="J694" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24282,11 +23438,19 @@
         <v>-47363946.63590359</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="J695" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24315,11 +23479,19 @@
         <v>-45942441.33790359</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="J696" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24348,11 +23520,19 @@
         <v>-47107674.76390359</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>0.2543</v>
+      </c>
+      <c r="J697" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24381,11 +23561,19 @@
         <v>-48264432.42790359</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>0.2534</v>
+      </c>
+      <c r="J698" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24414,11 +23602,19 @@
         <v>-49717841.77490359</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="J699" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24447,11 +23643,19 @@
         <v>-48739075.12090359</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="J700" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24480,11 +23684,19 @@
         <v>-49472044.66590359</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="J701" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24513,11 +23725,19 @@
         <v>-50662705.37990359</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="J702" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24546,11 +23766,19 @@
         <v>-49751744.82490359</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="J703" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24579,11 +23807,19 @@
         <v>-50679656.90490359</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="J704" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24612,11 +23848,19 @@
         <v>-52175445.06390359</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="J705" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24645,11 +23889,19 @@
         <v>-51366193.65790359</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="J706" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24678,11 +23930,19 @@
         <v>-53098432.01050359</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="J707" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24711,11 +23971,19 @@
         <v>-98031787.45780359</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="J708" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24747,8 +24015,14 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24780,14 +24054,20 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
       <c r="M710" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest AMO.xlsx
+++ b/BackTest/2020-01-15 BackTest AMO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -10252,7 +10252,7 @@
         <v>2162322.164032448</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>819097.7280324481</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>1569018.798032448</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>2810534.086032448</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>1874146.244032448</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>1874146.244032448</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>1872128.244032448</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>839772.7780324484</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>1742257.571032448</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>1742257.571032448</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>2434847.304032448</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>964486.4320324482</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>966419.4919324482</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>182595.3729324483</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>1307394.050932448</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>40451.4759324484</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>1248063.713932448</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>218442.4859324483</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-497575.5340675517</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-495621.1225675517</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-12457660.50016755</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-10936445.05416755</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-11821978.32216755</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-11821978.32216755</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-11821978.32216755</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-11821978.32216755</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-11821978.32216755</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -15169,14 +15169,10 @@
         <v>-32442046.98400357</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="J448" t="n">
-        <v>0.2518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
@@ -15209,14 +15205,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15248,14 +15238,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -22445,11 +22429,17 @@
         <v>-51570553.92370357</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>0.2529</v>
+      </c>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22482,7 +22472,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22515,7 +22509,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22548,7 +22546,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22581,7 +22583,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22614,7 +22620,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22647,7 +22657,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22680,7 +22694,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22709,11 +22727,17 @@
         <v>-46806480.43490358</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>0.2528</v>
+      </c>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22746,7 +22770,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22779,7 +22807,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22812,7 +22844,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22841,15 +22877,15 @@
         <v>-48285317.06890358</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
-      </c>
-      <c r="I680" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="J680" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K680" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -22878,17 +22914,13 @@
         <v>-47416735.32590358</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
-      </c>
-      <c r="I681" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="J681" t="n">
-        <v>0.2529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L681" t="n">
@@ -22919,17 +22951,13 @@
         <v>-48175132.15790358</v>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
-      </c>
-      <c r="I682" t="n">
-        <v>0.2531</v>
-      </c>
-      <c r="J682" t="n">
-        <v>0.2529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L682" t="n">
@@ -22960,15 +22988,15 @@
         <v>-49094568.47490358</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
-      </c>
-      <c r="I683" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="J683" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="K683" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23002,12 +23030,10 @@
       <c r="I684" t="n">
         <v>0.2513</v>
       </c>
-      <c r="J684" t="n">
-        <v>0.2519</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L684" t="n">
@@ -23038,17 +23064,13 @@
         <v>-48874198.65390359</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
-      </c>
-      <c r="I685" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="J685" t="n">
-        <v>0.2519</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L685" t="n">
@@ -23084,10 +23106,12 @@
       <c r="I686" t="n">
         <v>0.2518</v>
       </c>
-      <c r="J686" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23121,12 +23145,10 @@
       <c r="I687" t="n">
         <v>0.2524</v>
       </c>
-      <c r="J687" t="n">
-        <v>0.2518</v>
-      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L687" t="n">
@@ -23162,12 +23184,10 @@
       <c r="I688" t="n">
         <v>0.2517</v>
       </c>
-      <c r="J688" t="n">
-        <v>0.2518</v>
-      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L688" t="n">
@@ -23203,10 +23223,12 @@
       <c r="I689" t="n">
         <v>0.2525</v>
       </c>
-      <c r="J689" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23240,12 +23262,10 @@
       <c r="I690" t="n">
         <v>0.2518</v>
       </c>
-      <c r="J690" t="n">
-        <v>0.2525</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L690" t="n">
@@ -23281,12 +23301,10 @@
       <c r="I691" t="n">
         <v>0.2515</v>
       </c>
-      <c r="J691" t="n">
-        <v>0.2525</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L691" t="n">
@@ -23322,9 +23340,7 @@
       <c r="I692" t="n">
         <v>0.2544</v>
       </c>
-      <c r="J692" t="n">
-        <v>0.2525</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23361,9 +23377,7 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>0.2525</v>
-      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23402,9 +23416,7 @@
       <c r="I694" t="n">
         <v>0.2516</v>
       </c>
-      <c r="J694" t="n">
-        <v>0.2525</v>
-      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23443,9 +23455,7 @@
       <c r="I695" t="n">
         <v>0.2514</v>
       </c>
-      <c r="J695" t="n">
-        <v>0.2525</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23484,9 +23494,7 @@
       <c r="I696" t="n">
         <v>0.2519</v>
       </c>
-      <c r="J696" t="n">
-        <v>0.2525</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23520,14 +23528,10 @@
         <v>-47107674.76390359</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
-      </c>
-      <c r="I697" t="n">
-        <v>0.2543</v>
-      </c>
-      <c r="J697" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23561,14 +23565,10 @@
         <v>-48264432.42790359</v>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
-      </c>
-      <c r="I698" t="n">
-        <v>0.2534</v>
-      </c>
-      <c r="J698" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23602,14 +23602,10 @@
         <v>-49717841.77490359</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
-      </c>
-      <c r="I699" t="n">
-        <v>0.2531</v>
-      </c>
-      <c r="J699" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23643,14 +23639,10 @@
         <v>-48739075.12090359</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
-      </c>
-      <c r="I700" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J700" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I700" t="inlineStr"/>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23684,14 +23676,10 @@
         <v>-49472044.66590359</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
-      </c>
-      <c r="I701" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="J701" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I701" t="inlineStr"/>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23725,14 +23713,10 @@
         <v>-50662705.37990359</v>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
-      </c>
-      <c r="I702" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="J702" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I702" t="inlineStr"/>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23766,14 +23750,10 @@
         <v>-49751744.82490359</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
-      </c>
-      <c r="I703" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="J703" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23807,14 +23787,10 @@
         <v>-50679656.90490359</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
-      </c>
-      <c r="I704" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J704" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I704" t="inlineStr"/>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23848,14 +23824,10 @@
         <v>-52175445.06390359</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
-      </c>
-      <c r="I705" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J705" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I705" t="inlineStr"/>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23889,14 +23861,10 @@
         <v>-51366193.65790359</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
-      </c>
-      <c r="I706" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="J706" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I706" t="inlineStr"/>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23930,14 +23898,10 @@
         <v>-53098432.01050359</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
-      </c>
-      <c r="I707" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J707" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23971,14 +23935,10 @@
         <v>-98031787.45780359</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
-      </c>
-      <c r="I708" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="J708" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24015,9 +23975,7 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>0.2525</v>
-      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24054,9 +24012,7 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>0.2525</v>
-      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24068,6 +24024,6 @@
       <c r="M710" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest AMO.xlsx
+++ b/BackTest/2020-01-15 BackTest AMO.xlsx
@@ -10219,7 +10219,7 @@
         <v>1047943.312032448</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>1874146.244032448</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>1872128.244032448</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>839772.7780324484</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>964486.4320324482</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>182595.3729324483</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>1307394.050932448</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>40451.4759324484</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>1248063.713932448</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-6531387.104767553</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-5832320.609767552</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -21274,10 +21274,14 @@
         <v>-48482254.80280357</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="J633" t="n">
+        <v>0.2531</v>
+      </c>
       <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
@@ -21310,8 +21314,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21343,8 +21353,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22429,884 +22445,846 @@
         <v>-51570553.92370357</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
-      </c>
-      <c r="I668" t="n">
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
+      <c r="L668" t="n">
+        <v>1</v>
+      </c>
+      <c r="M668" t="inlineStr"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B669" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="C669" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="D669" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="E669" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="F669" t="n">
+        <v>1411030.535</v>
+      </c>
+      <c r="G669" t="n">
+        <v>-52981584.45870357</v>
+      </c>
+      <c r="H669" t="n">
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
+      <c r="L669" t="n">
+        <v>1</v>
+      </c>
+      <c r="M669" t="inlineStr"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="B670" t="n">
+        <v>0.2539</v>
+      </c>
+      <c r="C670" t="n">
+        <v>0.2539</v>
+      </c>
+      <c r="D670" t="n">
+        <v>0.2539</v>
+      </c>
+      <c r="E670" t="n">
+        <v>0.2539</v>
+      </c>
+      <c r="F670" t="n">
+        <v>817727.169</v>
+      </c>
+      <c r="G670" t="n">
+        <v>-52163857.28970357</v>
+      </c>
+      <c r="H670" t="n">
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
+      <c r="L670" t="n">
+        <v>1</v>
+      </c>
+      <c r="M670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="B671" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="C671" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="D671" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="E671" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="F671" t="n">
+        <v>3529479.7668</v>
+      </c>
+      <c r="G671" t="n">
+        <v>-48634377.52290357</v>
+      </c>
+      <c r="H671" t="n">
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
+      <c r="L671" t="n">
+        <v>1</v>
+      </c>
+      <c r="M671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="B672" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="C672" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="D672" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="E672" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="F672" t="n">
+        <v>760468.3254</v>
+      </c>
+      <c r="G672" t="n">
+        <v>-49394845.84830357</v>
+      </c>
+      <c r="H672" t="n">
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
+      <c r="L672" t="n">
+        <v>1</v>
+      </c>
+      <c r="M672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="B673" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="C673" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="D673" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="E673" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="F673" t="n">
+        <v>2843351.3586</v>
+      </c>
+      <c r="G673" t="n">
+        <v>-49394845.84830357</v>
+      </c>
+      <c r="H673" t="n">
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
+      <c r="L673" t="n">
+        <v>1</v>
+      </c>
+      <c r="M673" t="inlineStr"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="B674" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="C674" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="D674" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="E674" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="F674" t="n">
+        <v>741445.307</v>
+      </c>
+      <c r="G674" t="n">
+        <v>-48653400.54130358</v>
+      </c>
+      <c r="H674" t="n">
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
+      <c r="L674" t="n">
+        <v>1</v>
+      </c>
+      <c r="M674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="B675" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="C675" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="D675" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="E675" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="F675" t="n">
+        <v>1844920.1064</v>
+      </c>
+      <c r="G675" t="n">
+        <v>-46808480.43490358</v>
+      </c>
+      <c r="H675" t="n">
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
+      <c r="L675" t="n">
+        <v>1</v>
+      </c>
+      <c r="M675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="B676" t="n">
+        <v>0.2539</v>
+      </c>
+      <c r="C676" t="n">
+        <v>0.2539</v>
+      </c>
+      <c r="D676" t="n">
+        <v>0.2539</v>
+      </c>
+      <c r="E676" t="n">
+        <v>0.2539</v>
+      </c>
+      <c r="F676" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G676" t="n">
+        <v>-46806480.43490358</v>
+      </c>
+      <c r="H676" t="n">
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
+      <c r="L676" t="n">
+        <v>1</v>
+      </c>
+      <c r="M676" t="inlineStr"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B677" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="C677" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="D677" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="E677" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="F677" t="n">
+        <v>1521215.446</v>
+      </c>
+      <c r="G677" t="n">
+        <v>-48327695.88090358</v>
+      </c>
+      <c r="H677" t="n">
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
+      <c r="L677" t="n">
+        <v>1</v>
+      </c>
+      <c r="M677" t="inlineStr"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="B678" t="n">
         <v>0.2529</v>
       </c>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
+      <c r="C678" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="D678" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="E678" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="F678" t="n">
+        <v>885533.268</v>
+      </c>
+      <c r="G678" t="n">
+        <v>-47442162.61290358</v>
+      </c>
+      <c r="H678" t="n">
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="J678" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K678" t="inlineStr"/>
+      <c r="L678" t="n">
+        <v>1</v>
+      </c>
+      <c r="M678" t="inlineStr"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="B679" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="C679" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="D679" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="E679" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="F679" t="n">
+        <v>1184395.951</v>
+      </c>
+      <c r="G679" t="n">
+        <v>-47442162.61290358</v>
+      </c>
+      <c r="H679" t="n">
+        <v>0</v>
+      </c>
+      <c r="I679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L679" t="n">
+        <v>1</v>
+      </c>
+      <c r="M679" t="inlineStr"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="B680" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="C680" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="D680" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="E680" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="F680" t="n">
+        <v>843154.456</v>
+      </c>
+      <c r="G680" t="n">
+        <v>-48285317.06890358</v>
+      </c>
+      <c r="H680" t="n">
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L680" t="n">
+        <v>1</v>
+      </c>
+      <c r="M680" t="inlineStr"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="B681" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="C681" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="D681" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="E681" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="F681" t="n">
+        <v>868581.743</v>
+      </c>
+      <c r="G681" t="n">
+        <v>-47416735.32590358</v>
+      </c>
+      <c r="H681" t="n">
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
+      <c r="L681" t="n">
+        <v>1</v>
+      </c>
+      <c r="M681" t="inlineStr"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="B682" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="C682" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="D682" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="E682" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="F682" t="n">
+        <v>758396.8320000001</v>
+      </c>
+      <c r="G682" t="n">
+        <v>-48175132.15790358</v>
+      </c>
+      <c r="H682" t="n">
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
+      <c r="L682" t="n">
+        <v>1</v>
+      </c>
+      <c r="M682" t="inlineStr"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>681</v>
+      </c>
+      <c r="B683" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="C683" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="D683" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="E683" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="F683" t="n">
+        <v>919436.317</v>
+      </c>
+      <c r="G683" t="n">
+        <v>-49094568.47490358</v>
+      </c>
+      <c r="H683" t="n">
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="J683" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="K683" t="inlineStr"/>
+      <c r="L683" t="n">
+        <v>1</v>
+      </c>
+      <c r="M683" t="inlineStr"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>682</v>
+      </c>
+      <c r="B684" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="C684" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="D684" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="E684" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="F684" t="n">
+        <v>1300845.624</v>
+      </c>
+      <c r="G684" t="n">
+        <v>-47793722.85090359</v>
+      </c>
+      <c r="H684" t="n">
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="J684" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L684" t="n">
+        <v>1</v>
+      </c>
+      <c r="M684" t="inlineStr"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>683</v>
+      </c>
+      <c r="B685" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="C685" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="D685" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="E685" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="F685" t="n">
+        <v>1080475.803</v>
+      </c>
+      <c r="G685" t="n">
+        <v>-48874198.65390359</v>
+      </c>
+      <c r="H685" t="n">
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="J685" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L685" t="n">
+        <v>1</v>
+      </c>
+      <c r="M685" t="inlineStr"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="B686" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="C686" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="D686" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="E686" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="F686" t="n">
+        <v>1529691.209</v>
+      </c>
+      <c r="G686" t="n">
+        <v>-47344507.44490359</v>
+      </c>
+      <c r="H686" t="n">
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="J686" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="K686" t="inlineStr"/>
+      <c r="L686" t="n">
+        <v>1</v>
+      </c>
+      <c r="M686" t="inlineStr"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="B687" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="C687" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="D687" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="E687" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="F687" t="n">
+        <v>1309321.387</v>
+      </c>
+      <c r="G687" t="n">
+        <v>-48653828.83190359</v>
+      </c>
+      <c r="H687" t="n">
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="J687" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L687" t="n">
+        <v>1</v>
+      </c>
+      <c r="M687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="B688" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="C688" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="D688" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="E688" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="F688" t="n">
+        <v>1308184.6616</v>
+      </c>
+      <c r="G688" t="n">
+        <v>-47345644.17030359</v>
+      </c>
+      <c r="H688" t="n">
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="J688" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L688" t="n">
+        <v>1</v>
+      </c>
+      <c r="M688" t="inlineStr"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="B689" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="C689" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="D689" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="E689" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="F689" t="n">
+        <v>1478836.634</v>
+      </c>
+      <c r="G689" t="n">
+        <v>-48824480.80430359</v>
+      </c>
+      <c r="H689" t="n">
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="J689" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K689" t="inlineStr"/>
+      <c r="L689" t="n">
+        <v>1</v>
+      </c>
+      <c r="M689" t="inlineStr"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="B690" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="C690" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="D690" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="E690" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="F690" t="n">
+        <v>995718.179</v>
+      </c>
+      <c r="G690" t="n">
+        <v>-49820198.98330359</v>
+      </c>
+      <c r="H690" t="n">
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="J690" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L690" t="n">
+        <v>1</v>
+      </c>
+      <c r="M690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="C691" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="D691" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="E691" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="F691" t="n">
+        <v>3428997.404</v>
+      </c>
+      <c r="G691" t="n">
+        <v>-46391201.57930359</v>
+      </c>
+      <c r="H691" t="n">
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="J691" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="K691" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L668" t="n">
-        <v>1</v>
-      </c>
-      <c r="M668" t="inlineStr"/>
-    </row>
-    <row r="669">
-      <c r="A669" s="1" t="n">
-        <v>667</v>
-      </c>
-      <c r="B669" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="C669" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="D669" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="E669" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="F669" t="n">
-        <v>1411030.535</v>
-      </c>
-      <c r="G669" t="n">
-        <v>-52981584.45870357</v>
-      </c>
-      <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L669" t="n">
-        <v>1</v>
-      </c>
-      <c r="M669" t="inlineStr"/>
-    </row>
-    <row r="670">
-      <c r="A670" s="1" t="n">
-        <v>668</v>
-      </c>
-      <c r="B670" t="n">
-        <v>0.2539</v>
-      </c>
-      <c r="C670" t="n">
-        <v>0.2539</v>
-      </c>
-      <c r="D670" t="n">
-        <v>0.2539</v>
-      </c>
-      <c r="E670" t="n">
-        <v>0.2539</v>
-      </c>
-      <c r="F670" t="n">
-        <v>817727.169</v>
-      </c>
-      <c r="G670" t="n">
-        <v>-52163857.28970357</v>
-      </c>
-      <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L670" t="n">
-        <v>1</v>
-      </c>
-      <c r="M670" t="inlineStr"/>
-    </row>
-    <row r="671">
-      <c r="A671" s="1" t="n">
-        <v>669</v>
-      </c>
-      <c r="B671" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="C671" t="n">
-        <v>0.254</v>
-      </c>
-      <c r="D671" t="n">
-        <v>0.254</v>
-      </c>
-      <c r="E671" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="F671" t="n">
-        <v>3529479.7668</v>
-      </c>
-      <c r="G671" t="n">
-        <v>-48634377.52290357</v>
-      </c>
-      <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L671" t="n">
-        <v>1</v>
-      </c>
-      <c r="M671" t="inlineStr"/>
-    </row>
-    <row r="672">
-      <c r="A672" s="1" t="n">
-        <v>670</v>
-      </c>
-      <c r="B672" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="C672" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="D672" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="E672" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="F672" t="n">
-        <v>760468.3254</v>
-      </c>
-      <c r="G672" t="n">
-        <v>-49394845.84830357</v>
-      </c>
-      <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L672" t="n">
-        <v>1</v>
-      </c>
-      <c r="M672" t="inlineStr"/>
-    </row>
-    <row r="673">
-      <c r="A673" s="1" t="n">
-        <v>671</v>
-      </c>
-      <c r="B673" t="n">
-        <v>0.2513</v>
-      </c>
-      <c r="C673" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="D673" t="n">
-        <v>0.254</v>
-      </c>
-      <c r="E673" t="n">
-        <v>0.2513</v>
-      </c>
-      <c r="F673" t="n">
-        <v>2843351.3586</v>
-      </c>
-      <c r="G673" t="n">
-        <v>-49394845.84830357</v>
-      </c>
-      <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L673" t="n">
-        <v>1</v>
-      </c>
-      <c r="M673" t="inlineStr"/>
-    </row>
-    <row r="674">
-      <c r="A674" s="1" t="n">
-        <v>672</v>
-      </c>
-      <c r="B674" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="C674" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="D674" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="E674" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="F674" t="n">
-        <v>741445.307</v>
-      </c>
-      <c r="G674" t="n">
-        <v>-48653400.54130358</v>
-      </c>
-      <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L674" t="n">
-        <v>1</v>
-      </c>
-      <c r="M674" t="inlineStr"/>
-    </row>
-    <row r="675">
-      <c r="A675" s="1" t="n">
-        <v>673</v>
-      </c>
-      <c r="B675" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="C675" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="D675" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="E675" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="F675" t="n">
-        <v>1844920.1064</v>
-      </c>
-      <c r="G675" t="n">
-        <v>-46808480.43490358</v>
-      </c>
-      <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L675" t="n">
-        <v>1</v>
-      </c>
-      <c r="M675" t="inlineStr"/>
-    </row>
-    <row r="676">
-      <c r="A676" s="1" t="n">
-        <v>674</v>
-      </c>
-      <c r="B676" t="n">
-        <v>0.2539</v>
-      </c>
-      <c r="C676" t="n">
-        <v>0.2539</v>
-      </c>
-      <c r="D676" t="n">
-        <v>0.2539</v>
-      </c>
-      <c r="E676" t="n">
-        <v>0.2539</v>
-      </c>
-      <c r="F676" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G676" t="n">
-        <v>-46806480.43490358</v>
-      </c>
-      <c r="H676" t="n">
-        <v>1</v>
-      </c>
-      <c r="I676" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L676" t="n">
-        <v>1</v>
-      </c>
-      <c r="M676" t="inlineStr"/>
-    </row>
-    <row r="677">
-      <c r="A677" s="1" t="n">
-        <v>675</v>
-      </c>
-      <c r="B677" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="C677" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="D677" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="E677" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="F677" t="n">
-        <v>1521215.446</v>
-      </c>
-      <c r="G677" t="n">
-        <v>-48327695.88090358</v>
-      </c>
-      <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L677" t="n">
-        <v>1</v>
-      </c>
-      <c r="M677" t="inlineStr"/>
-    </row>
-    <row r="678">
-      <c r="A678" s="1" t="n">
-        <v>676</v>
-      </c>
-      <c r="B678" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="C678" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="D678" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="E678" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="F678" t="n">
-        <v>885533.268</v>
-      </c>
-      <c r="G678" t="n">
-        <v>-47442162.61290358</v>
-      </c>
-      <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L678" t="n">
-        <v>1</v>
-      </c>
-      <c r="M678" t="inlineStr"/>
-    </row>
-    <row r="679">
-      <c r="A679" s="1" t="n">
-        <v>677</v>
-      </c>
-      <c r="B679" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="C679" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="D679" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="E679" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="F679" t="n">
-        <v>1184395.951</v>
-      </c>
-      <c r="G679" t="n">
-        <v>-47442162.61290358</v>
-      </c>
-      <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L679" t="n">
-        <v>1</v>
-      </c>
-      <c r="M679" t="inlineStr"/>
-    </row>
-    <row r="680">
-      <c r="A680" s="1" t="n">
-        <v>678</v>
-      </c>
-      <c r="B680" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="C680" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="D680" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="E680" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="F680" t="n">
-        <v>843154.456</v>
-      </c>
-      <c r="G680" t="n">
-        <v>-48285317.06890358</v>
-      </c>
-      <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L680" t="n">
-        <v>1</v>
-      </c>
-      <c r="M680" t="inlineStr"/>
-    </row>
-    <row r="681">
-      <c r="A681" s="1" t="n">
-        <v>679</v>
-      </c>
-      <c r="B681" t="n">
-        <v>0.2531</v>
-      </c>
-      <c r="C681" t="n">
-        <v>0.2531</v>
-      </c>
-      <c r="D681" t="n">
-        <v>0.2531</v>
-      </c>
-      <c r="E681" t="n">
-        <v>0.2531</v>
-      </c>
-      <c r="F681" t="n">
-        <v>868581.743</v>
-      </c>
-      <c r="G681" t="n">
-        <v>-47416735.32590358</v>
-      </c>
-      <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L681" t="n">
-        <v>1</v>
-      </c>
-      <c r="M681" t="inlineStr"/>
-    </row>
-    <row r="682">
-      <c r="A682" s="1" t="n">
-        <v>680</v>
-      </c>
-      <c r="B682" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="C682" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="D682" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="E682" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="F682" t="n">
-        <v>758396.8320000001</v>
-      </c>
-      <c r="G682" t="n">
-        <v>-48175132.15790358</v>
-      </c>
-      <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L682" t="n">
-        <v>1</v>
-      </c>
-      <c r="M682" t="inlineStr"/>
-    </row>
-    <row r="683">
-      <c r="A683" s="1" t="n">
-        <v>681</v>
-      </c>
-      <c r="B683" t="n">
-        <v>0.2513</v>
-      </c>
-      <c r="C683" t="n">
-        <v>0.2513</v>
-      </c>
-      <c r="D683" t="n">
-        <v>0.2513</v>
-      </c>
-      <c r="E683" t="n">
-        <v>0.2513</v>
-      </c>
-      <c r="F683" t="n">
-        <v>919436.317</v>
-      </c>
-      <c r="G683" t="n">
-        <v>-49094568.47490358</v>
-      </c>
-      <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L683" t="n">
-        <v>1</v>
-      </c>
-      <c r="M683" t="inlineStr"/>
-    </row>
-    <row r="684">
-      <c r="A684" s="1" t="n">
-        <v>682</v>
-      </c>
-      <c r="B684" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="C684" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="D684" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="E684" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="F684" t="n">
-        <v>1300845.624</v>
-      </c>
-      <c r="G684" t="n">
-        <v>-47793722.85090359</v>
-      </c>
-      <c r="H684" t="n">
-        <v>1</v>
-      </c>
-      <c r="I684" t="n">
-        <v>0.2513</v>
-      </c>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L684" t="n">
-        <v>1</v>
-      </c>
-      <c r="M684" t="inlineStr"/>
-    </row>
-    <row r="685">
-      <c r="A685" s="1" t="n">
-        <v>683</v>
-      </c>
-      <c r="B685" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="C685" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="D685" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="E685" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="F685" t="n">
-        <v>1080475.803</v>
-      </c>
-      <c r="G685" t="n">
-        <v>-48874198.65390359</v>
-      </c>
-      <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L685" t="n">
-        <v>1</v>
-      </c>
-      <c r="M685" t="inlineStr"/>
-    </row>
-    <row r="686">
-      <c r="A686" s="1" t="n">
-        <v>684</v>
-      </c>
-      <c r="B686" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="C686" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="D686" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="E686" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="F686" t="n">
-        <v>1529691.209</v>
-      </c>
-      <c r="G686" t="n">
-        <v>-47344507.44490359</v>
-      </c>
-      <c r="H686" t="n">
-        <v>1</v>
-      </c>
-      <c r="I686" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L686" t="n">
-        <v>1</v>
-      </c>
-      <c r="M686" t="inlineStr"/>
-    </row>
-    <row r="687">
-      <c r="A687" s="1" t="n">
-        <v>685</v>
-      </c>
-      <c r="B687" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="C687" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="D687" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="E687" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="F687" t="n">
-        <v>1309321.387</v>
-      </c>
-      <c r="G687" t="n">
-        <v>-48653828.83190359</v>
-      </c>
-      <c r="H687" t="n">
-        <v>1</v>
-      </c>
-      <c r="I687" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L687" t="n">
-        <v>1</v>
-      </c>
-      <c r="M687" t="inlineStr"/>
-    </row>
-    <row r="688">
-      <c r="A688" s="1" t="n">
-        <v>686</v>
-      </c>
-      <c r="B688" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="C688" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="D688" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="E688" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="F688" t="n">
-        <v>1308184.6616</v>
-      </c>
-      <c r="G688" t="n">
-        <v>-47345644.17030359</v>
-      </c>
-      <c r="H688" t="n">
-        <v>1</v>
-      </c>
-      <c r="I688" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L688" t="n">
-        <v>1</v>
-      </c>
-      <c r="M688" t="inlineStr"/>
-    </row>
-    <row r="689">
-      <c r="A689" s="1" t="n">
-        <v>687</v>
-      </c>
-      <c r="B689" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="C689" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="D689" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="E689" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="F689" t="n">
-        <v>1478836.634</v>
-      </c>
-      <c r="G689" t="n">
-        <v>-48824480.80430359</v>
-      </c>
-      <c r="H689" t="n">
-        <v>1</v>
-      </c>
-      <c r="I689" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L689" t="n">
-        <v>1</v>
-      </c>
-      <c r="M689" t="inlineStr"/>
-    </row>
-    <row r="690">
-      <c r="A690" s="1" t="n">
-        <v>688</v>
-      </c>
-      <c r="B690" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="C690" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="D690" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="E690" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="F690" t="n">
-        <v>995718.179</v>
-      </c>
-      <c r="G690" t="n">
-        <v>-49820198.98330359</v>
-      </c>
-      <c r="H690" t="n">
-        <v>1</v>
-      </c>
-      <c r="I690" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L690" t="n">
-        <v>1</v>
-      </c>
-      <c r="M690" t="inlineStr"/>
-    </row>
-    <row r="691">
-      <c r="A691" s="1" t="n">
-        <v>689</v>
-      </c>
-      <c r="B691" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="C691" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="D691" t="n">
-        <v>0.2544</v>
-      </c>
-      <c r="E691" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="F691" t="n">
-        <v>3428997.404</v>
-      </c>
-      <c r="G691" t="n">
-        <v>-46391201.57930359</v>
-      </c>
-      <c r="H691" t="n">
-        <v>1</v>
-      </c>
-      <c r="I691" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23340,7 +23318,9 @@
       <c r="I692" t="n">
         <v>0.2544</v>
       </c>
-      <c r="J692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23374,10 +23354,14 @@
         <v>-48213122.68930359</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>0.2534</v>
+      </c>
+      <c r="J693" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23416,7 +23400,9 @@
       <c r="I694" t="n">
         <v>0.2516</v>
       </c>
-      <c r="J694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23455,7 +23441,9 @@
       <c r="I695" t="n">
         <v>0.2514</v>
       </c>
-      <c r="J695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23494,7 +23482,9 @@
       <c r="I696" t="n">
         <v>0.2519</v>
       </c>
-      <c r="J696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23528,10 +23518,14 @@
         <v>-47107674.76390359</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>0.2543</v>
+      </c>
+      <c r="J697" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23568,7 +23562,9 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23602,10 +23598,14 @@
         <v>-49717841.77490359</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="J699" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23639,10 +23639,14 @@
         <v>-48739075.12090359</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="J700" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23676,10 +23680,14 @@
         <v>-49472044.66590359</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="J701" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23713,10 +23721,14 @@
         <v>-50662705.37990359</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="J702" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23750,10 +23762,14 @@
         <v>-49751744.82490359</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="J703" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23787,10 +23803,14 @@
         <v>-50679656.90490359</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="J704" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23824,10 +23844,14 @@
         <v>-52175445.06390359</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="J705" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23861,10 +23885,14 @@
         <v>-51366193.65790359</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="J706" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23898,10 +23926,14 @@
         <v>-53098432.01050359</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="J707" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23935,10 +23967,14 @@
         <v>-98031787.45780359</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="J708" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23975,7 +24011,9 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24009,10 +24047,14 @@
         <v>-94255715.11260359</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="J710" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
